--- a/Documentos/FORMULÁRIO DE INFORMAÇÕES DE RISCO.xlsx
+++ b/Documentos/FORMULÁRIO DE INFORMAÇÕES DE RISCO.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -253,40 +253,40 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,22 +606,22 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
@@ -639,316 +639,324 @@
       <c r="J1" s="17"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
@@ -986,109 +994,109 @@
       <c r="G44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1112,117 +1120,117 @@
       <c r="G54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
@@ -1247,102 +1255,102 @@
       <c r="G67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="5" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1358,7 @@
     <row r="76" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:10" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25"/>
     <row r="100" spans="7:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H100" s="6" t="s">
@@ -1373,6 +1381,17 @@
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="H67:J67"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B35:F35"/>
@@ -1393,38 +1412,27 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.39583333333333331" top="1.34375" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
